--- a/Code/Results/Cases/Case_3_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5517989424224</v>
+        <v>11.09743279987498</v>
       </c>
       <c r="C2">
-        <v>7.31809130630864</v>
+        <v>4.383610461228727</v>
       </c>
       <c r="D2">
-        <v>9.607391216088947</v>
+        <v>10.55600213707838</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.33706926132134</v>
+        <v>33.86179476280677</v>
       </c>
       <c r="G2">
-        <v>2.096949852191913</v>
+        <v>3.657505479244528</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.301824621628526</v>
+        <v>11.38325827074975</v>
       </c>
       <c r="K2">
-        <v>11.8817629996872</v>
+        <v>10.4597486080256</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.39275372672424</v>
+        <v>19.14434137877175</v>
       </c>
       <c r="O2">
-        <v>16.34553710403038</v>
+        <v>24.97602651856182</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.63945341980464</v>
+        <v>10.83781369857153</v>
       </c>
       <c r="C3">
-        <v>6.914170261447581</v>
+        <v>4.168377122335583</v>
       </c>
       <c r="D3">
-        <v>9.088335290893102</v>
+        <v>10.4589168366868</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.85892970163755</v>
+        <v>33.88778119270932</v>
       </c>
       <c r="G3">
-        <v>2.101858981583365</v>
+        <v>3.659363388589991</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.028646515734506</v>
+        <v>11.36493578756304</v>
       </c>
       <c r="K3">
-        <v>11.14674417326909</v>
+        <v>10.28343398044409</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.599216396323</v>
+        <v>19.2055266257816</v>
       </c>
       <c r="O3">
-        <v>16.30296216574727</v>
+        <v>25.04599247561742</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.04635950753175</v>
+        <v>10.67736933921746</v>
       </c>
       <c r="C4">
-        <v>6.653816879063318</v>
+        <v>4.029562607868116</v>
       </c>
       <c r="D4">
-        <v>8.758694917526439</v>
+        <v>10.40108082809133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.58167453035531</v>
+        <v>33.91182969454054</v>
       </c>
       <c r="G4">
-        <v>2.104966972769487</v>
+        <v>3.660564825462544</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.861564012228215</v>
+        <v>11.35595289567657</v>
       </c>
       <c r="K4">
-        <v>10.67051308574654</v>
+        <v>10.17543649536271</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.72870525960618</v>
+        <v>19.24483376828429</v>
       </c>
       <c r="O4">
-        <v>16.2904699068912</v>
+        <v>25.09402202378385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.79634422474364</v>
+        <v>10.61182511364603</v>
       </c>
       <c r="C5">
-        <v>6.544659077273711</v>
+        <v>3.97135813303171</v>
       </c>
       <c r="D5">
-        <v>8.621762338598735</v>
+        <v>10.37798206355747</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.47282994715971</v>
+        <v>33.92366252279353</v>
       </c>
       <c r="G5">
-        <v>2.106257629134223</v>
+        <v>3.661069725444963</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.793730685529646</v>
+        <v>11.35286503494215</v>
       </c>
       <c r="K5">
-        <v>10.47018700543075</v>
+        <v>10.13154850109054</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.78218089042543</v>
+        <v>19.26129040188989</v>
       </c>
       <c r="O5">
-        <v>16.28868809391116</v>
+        <v>25.11486695088306</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.75432517045719</v>
+        <v>10.60093473193928</v>
       </c>
       <c r="C6">
-        <v>6.526350068456142</v>
+        <v>3.961595749928219</v>
       </c>
       <c r="D6">
-        <v>8.598872599967457</v>
+        <v>10.37417558274318</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.45500711464975</v>
+        <v>33.92575005507791</v>
       </c>
       <c r="G6">
-        <v>2.106473414259566</v>
+        <v>3.661154489480253</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.782485117795816</v>
+        <v>11.35238695856799</v>
       </c>
       <c r="K6">
-        <v>10.43654555894901</v>
+        <v>10.12426995028228</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.79110391045167</v>
+        <v>19.2640495460941</v>
       </c>
       <c r="O6">
-        <v>16.28858842259055</v>
+        <v>25.11840501707322</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.04302148485652</v>
+        <v>10.67648590877792</v>
       </c>
       <c r="C7">
-        <v>6.652357070566501</v>
+        <v>4.02878421191021</v>
       </c>
       <c r="D7">
-        <v>8.756858511635947</v>
+        <v>10.400767377043</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.58018981961344</v>
+        <v>33.91198104871093</v>
       </c>
       <c r="G7">
-        <v>2.104984280625885</v>
+        <v>3.660571572688746</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.860648035379861</v>
+        <v>11.35590892954376</v>
       </c>
       <c r="K7">
-        <v>10.66783673543413</v>
+        <v>10.17484403827408</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.72942355367211</v>
+        <v>19.24505393035091</v>
       </c>
       <c r="O7">
-        <v>16.29043264382794</v>
+        <v>25.0942979968087</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.24402265066476</v>
+        <v>11.00818960608062</v>
       </c>
       <c r="C8">
-        <v>7.181403143737927</v>
+        <v>4.310801263874475</v>
       </c>
       <c r="D8">
-        <v>9.430771443073677</v>
+        <v>10.5221731991363</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.16884296399521</v>
+        <v>33.86907423756725</v>
       </c>
       <c r="G8">
-        <v>2.098623395778927</v>
+        <v>3.658133522627886</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.207550520831511</v>
+        <v>11.37647183549302</v>
       </c>
       <c r="K8">
-        <v>11.63350451291925</v>
+        <v>10.39893490986299</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.46339229809358</v>
+        <v>19.16507789472773</v>
       </c>
       <c r="O8">
-        <v>16.32795111742677</v>
+        <v>24.99909703739859</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.34034234655311</v>
+        <v>11.64628544038969</v>
       </c>
       <c r="C9">
-        <v>8.119630060475453</v>
+        <v>4.809634038481338</v>
       </c>
       <c r="D9">
-        <v>10.6603811432537</v>
+        <v>10.77325527133033</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.45069049408181</v>
+        <v>33.84920357238433</v>
       </c>
       <c r="G9">
-        <v>2.086867633457364</v>
+        <v>3.653831737042217</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.889335451599779</v>
+        <v>11.43465059022827</v>
       </c>
       <c r="K9">
-        <v>13.32951536248657</v>
+        <v>10.8380044240158</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.96213993039402</v>
+        <v>19.02198280643023</v>
       </c>
       <c r="O9">
-        <v>16.51518107648239</v>
+        <v>24.8527426574427</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.72598017978029</v>
+        <v>12.10233017445237</v>
       </c>
       <c r="C10">
-        <v>8.747416066049905</v>
+        <v>5.141658488313791</v>
       </c>
       <c r="D10">
-        <v>11.50255346190905</v>
+        <v>10.96416751669497</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.46703738268212</v>
+        <v>33.87380825567511</v>
       </c>
       <c r="G10">
-        <v>2.078629868775069</v>
+        <v>3.650960295688212</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.386856748465629</v>
+        <v>11.48807322981178</v>
       </c>
       <c r="K10">
-        <v>14.45589826091291</v>
+        <v>11.15718046164337</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.604625379468</v>
+        <v>18.92513778969998</v>
       </c>
       <c r="O10">
-        <v>16.72910039651322</v>
+        <v>24.76994217850792</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.32352361525842</v>
+        <v>12.30602499108403</v>
       </c>
       <c r="C11">
-        <v>9.01959303498975</v>
+        <v>5.28501047667866</v>
       </c>
       <c r="D11">
-        <v>11.87170672075931</v>
+        <v>11.05209243960369</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.94486522035304</v>
+        <v>33.89349831362332</v>
       </c>
       <c r="G11">
-        <v>2.07495991951635</v>
+        <v>3.649716121523666</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.611726024482444</v>
+        <v>11.51464239227978</v>
       </c>
       <c r="K11">
-        <v>14.94265495557449</v>
+        <v>11.30100045910224</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.44391579460451</v>
+        <v>18.88286114099818</v>
       </c>
       <c r="O11">
-        <v>16.84443038021492</v>
+        <v>24.73766965083033</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.54514418363856</v>
+        <v>12.38254218857024</v>
       </c>
       <c r="C12">
-        <v>9.120734403055131</v>
+        <v>5.338175660657723</v>
       </c>
       <c r="D12">
-        <v>12.00945397615377</v>
+        <v>11.08551481229582</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.12797323675376</v>
+        <v>33.90217308500073</v>
       </c>
       <c r="G12">
-        <v>2.073580547842184</v>
+        <v>3.649253859754977</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.696620465828461</v>
+        <v>11.52502423085542</v>
       </c>
       <c r="K12">
-        <v>15.12332284449531</v>
+        <v>11.35521294736712</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.38330080207556</v>
+        <v>18.86710645249206</v>
       </c>
       <c r="O12">
-        <v>16.89080472484954</v>
+        <v>24.72622642526742</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.49762034930069</v>
+        <v>12.3660914676535</v>
       </c>
       <c r="C13">
-        <v>9.099037381616787</v>
+        <v>5.326775545669305</v>
       </c>
       <c r="D13">
-        <v>11.97987893154796</v>
+        <v>11.07831149660125</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.08844227913793</v>
+        <v>33.90025068587668</v>
       </c>
       <c r="G13">
-        <v>2.07387717247815</v>
+        <v>3.649353021855562</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.678349114012947</v>
+        <v>11.52277414307047</v>
       </c>
       <c r="K13">
-        <v>15.08457485328116</v>
+        <v>11.34354918517062</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.3963451289052</v>
+        <v>18.87048820395545</v>
       </c>
       <c r="O13">
-        <v>16.88069532024569</v>
+        <v>24.72865631027379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.34184944327035</v>
+        <v>12.31233290302199</v>
       </c>
       <c r="C14">
-        <v>9.027952570237773</v>
+        <v>5.289406904576551</v>
       </c>
       <c r="D14">
-        <v>11.88308037327491</v>
+        <v>11.05483973041859</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.95988657008539</v>
+        <v>33.89418759315906</v>
       </c>
       <c r="G14">
-        <v>2.074846234826373</v>
+        <v>3.649677913252862</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.618715772990699</v>
+        <v>11.51549011749878</v>
       </c>
       <c r="K14">
-        <v>14.95759169505861</v>
+        <v>11.30546582943346</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.43892431481527</v>
+        <v>18.88155989837767</v>
       </c>
       <c r="O14">
-        <v>16.84819086765044</v>
+        <v>24.73671261276928</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.24583068507318</v>
+        <v>12.27932162411685</v>
       </c>
       <c r="C15">
-        <v>8.984160371968922</v>
+        <v>5.266371438141641</v>
       </c>
       <c r="D15">
-        <v>11.82352156262728</v>
+        <v>11.04047832244331</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.88142269728192</v>
+        <v>33.89063235085919</v>
       </c>
       <c r="G15">
-        <v>2.075441138472911</v>
+        <v>3.649878073750783</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.582153646749733</v>
+        <v>11.51107003799781</v>
       </c>
       <c r="K15">
-        <v>14.87933568509719</v>
+        <v>11.28210476158315</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.46503577349187</v>
+        <v>18.88837474666185</v>
       </c>
       <c r="O15">
-        <v>16.82863595986251</v>
+        <v>24.74174866554339</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.68627448493692</v>
+        <v>12.08893585325568</v>
       </c>
       <c r="C16">
-        <v>8.72935890961547</v>
+        <v>5.132134170565143</v>
       </c>
       <c r="D16">
-        <v>11.4781441718903</v>
+        <v>10.95844072248537</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.4361164119841</v>
+        <v>33.87269219163237</v>
       </c>
       <c r="G16">
-        <v>2.07887120168561</v>
+        <v>3.651042850409773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.372127277321637</v>
+        <v>11.48638204479395</v>
       </c>
       <c r="K16">
-        <v>14.42357412587285</v>
+        <v>11.14774938042509</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.61516396698442</v>
+        <v>18.92793635557342</v>
       </c>
       <c r="O16">
-        <v>16.72193540838683</v>
+        <v>24.77215998132052</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.33464784922969</v>
+        <v>11.97112041654443</v>
       </c>
       <c r="C17">
-        <v>8.569612232459969</v>
+        <v>5.047804306859859</v>
       </c>
       <c r="D17">
-        <v>11.26266148423501</v>
+        <v>10.90836955719051</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.16685613642179</v>
+        <v>33.86386082021403</v>
       </c>
       <c r="G17">
-        <v>2.080994733214217</v>
+        <v>3.651773266510614</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.242871842491176</v>
+        <v>11.47181373294579</v>
       </c>
       <c r="K17">
-        <v>14.13743226174214</v>
+        <v>11.06493732373863</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.7077320081435</v>
+        <v>18.95266081177597</v>
       </c>
       <c r="O17">
-        <v>16.66117270022779</v>
+        <v>24.79219934436598</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.12931148553954</v>
+        <v>11.90300619040758</v>
       </c>
       <c r="C18">
-        <v>8.476467855457644</v>
+        <v>4.998577012790501</v>
       </c>
       <c r="D18">
-        <v>11.13740918470415</v>
+        <v>10.87967308560461</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.0134458940407</v>
+        <v>33.85958131943828</v>
       </c>
       <c r="G18">
-        <v>2.082223472026446</v>
+        <v>3.652199226419993</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.168392856511932</v>
+        <v>11.46364814475557</v>
       </c>
       <c r="K18">
-        <v>13.97043543768334</v>
+        <v>11.01717954432035</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.76115815075375</v>
+        <v>18.96704914990252</v>
       </c>
       <c r="O18">
-        <v>16.62791311187887</v>
+        <v>24.80423303633749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05925564351726</v>
+        <v>11.87988621644477</v>
       </c>
       <c r="C19">
-        <v>8.444714008207468</v>
+        <v>4.981785788131318</v>
       </c>
       <c r="D19">
-        <v>11.09477685983706</v>
+        <v>10.86997551785119</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.9617567528459</v>
+        <v>33.85826985030867</v>
       </c>
       <c r="G19">
-        <v>2.082640785372372</v>
+        <v>3.652344454166178</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.143154085238729</v>
+        <v>11.4609202783323</v>
       </c>
       <c r="K19">
-        <v>13.91347744927908</v>
+        <v>11.00098946133645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.77927985116909</v>
+        <v>18.97194959655209</v>
       </c>
       <c r="O19">
-        <v>16.61693872284823</v>
+        <v>24.80839454963209</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.37239848981464</v>
+        <v>11.98369885780358</v>
       </c>
       <c r="C20">
-        <v>8.58674818930937</v>
+        <v>5.056856299417576</v>
       </c>
       <c r="D20">
-        <v>11.28573611786811</v>
+        <v>10.91368924597978</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.19536859676134</v>
+        <v>33.86471815106387</v>
       </c>
       <c r="G20">
-        <v>2.080767925512354</v>
+        <v>3.651694907969612</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.256645631722549</v>
+        <v>11.4733424725862</v>
       </c>
       <c r="K20">
-        <v>14.1681423495523</v>
+        <v>11.07376627756334</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.697859238995</v>
+        <v>18.95001152589951</v>
       </c>
       <c r="O20">
-        <v>16.66746532140801</v>
+        <v>24.79001357182888</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.38772901980463</v>
+        <v>12.32814044016612</v>
       </c>
       <c r="C21">
-        <v>9.048884137349578</v>
+        <v>5.300413446614882</v>
       </c>
       <c r="D21">
-        <v>11.91156812250799</v>
+        <v>11.06173072940378</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.99758820362744</v>
+        <v>33.8959354306033</v>
       </c>
       <c r="G21">
-        <v>2.074561323064977</v>
+        <v>3.64958224412249</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.636238895383203</v>
+        <v>11.51762095376011</v>
       </c>
       <c r="K21">
-        <v>14.99498868742309</v>
+        <v>11.31665898978394</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.426411489463</v>
+        <v>18.87830097418378</v>
       </c>
       <c r="O21">
-        <v>16.85766403865167</v>
+        <v>24.7343251599264</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.02419555579071</v>
+        <v>12.54962156629734</v>
       </c>
       <c r="C22">
-        <v>9.339694165989423</v>
+        <v>5.453064776797067</v>
       </c>
       <c r="D22">
-        <v>12.30866995825564</v>
+        <v>11.15921243304262</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.53448070933033</v>
+        <v>33.92343819649909</v>
       </c>
       <c r="G22">
-        <v>2.070564926921598</v>
+        <v>3.648253235349651</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.882801421637332</v>
+        <v>11.54842587896479</v>
       </c>
       <c r="K22">
-        <v>15.51408661190931</v>
+        <v>11.47392983325954</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.25039882401141</v>
+        <v>18.83291720710886</v>
       </c>
       <c r="O22">
-        <v>16.99776394956224</v>
+        <v>24.70246330534703</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.68696192596793</v>
+        <v>12.43176900707567</v>
       </c>
       <c r="C23">
-        <v>9.185508314815607</v>
+        <v>5.372192911632123</v>
       </c>
       <c r="D23">
-        <v>12.09782784461452</v>
+        <v>11.10712719464136</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.24679725846692</v>
+        <v>33.90811113882782</v>
       </c>
       <c r="G23">
-        <v>2.0726926619764</v>
+        <v>3.648957832654204</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.751359511606276</v>
+        <v>11.53181579716438</v>
       </c>
       <c r="K23">
-        <v>15.23897121159228</v>
+        <v>11.39014258876482</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.34422461285155</v>
+        <v>18.85700405791359</v>
       </c>
       <c r="O23">
-        <v>16.92150939865658</v>
+        <v>24.71905310660787</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.35534133939207</v>
+        <v>11.97801332397768</v>
       </c>
       <c r="C24">
-        <v>8.579005084587546</v>
+        <v>5.052766212848005</v>
       </c>
       <c r="D24">
-        <v>11.27530833544716</v>
+        <v>10.91128393187895</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.18247377574231</v>
+        <v>33.86432806651152</v>
       </c>
       <c r="G24">
-        <v>2.080870440633602</v>
+        <v>3.651730315067572</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.250419022010494</v>
+        <v>11.47265067509678</v>
       </c>
       <c r="K24">
-        <v>14.15426607708895</v>
+        <v>11.06977516465811</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.70232206888579</v>
+        <v>18.95120872618631</v>
       </c>
       <c r="O24">
-        <v>16.66461522258825</v>
+        <v>24.7910001623965</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.80061129368972</v>
+        <v>11.47554724073412</v>
       </c>
       <c r="C25">
-        <v>7.876576936270927</v>
+        <v>4.680655104892271</v>
       </c>
       <c r="D25">
-        <v>10.33819898635937</v>
+        <v>10.70409007049546</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.09057227472861</v>
+        <v>33.8476921591525</v>
       </c>
       <c r="G25">
-        <v>2.089974861349674</v>
+        <v>3.654944498217679</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.705209801052465</v>
+        <v>11.4170197160862</v>
       </c>
       <c r="K25">
-        <v>12.89180394648189</v>
+        <v>10.71959875170883</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.09572398891007</v>
+        <v>19.05923223362324</v>
       </c>
       <c r="O25">
-        <v>16.45161757866513</v>
+        <v>24.88800257353786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.09743279987498</v>
+        <v>13.55179894242249</v>
       </c>
       <c r="C2">
-        <v>4.383610461228727</v>
+        <v>7.318091306308654</v>
       </c>
       <c r="D2">
-        <v>10.55600213707838</v>
+        <v>9.607391216088908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.86179476280677</v>
+        <v>24.33706926132112</v>
       </c>
       <c r="G2">
-        <v>3.657505479244528</v>
+        <v>2.096949852191912</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.38325827074975</v>
+        <v>8.301824621628565</v>
       </c>
       <c r="K2">
-        <v>10.4597486080256</v>
+        <v>11.88176299968729</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.14434137877175</v>
+        <v>12.3927537267242</v>
       </c>
       <c r="O2">
-        <v>24.97602651856182</v>
+        <v>16.34553710403022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.83781369857153</v>
+        <v>12.63945341980462</v>
       </c>
       <c r="C3">
-        <v>4.168377122335583</v>
+        <v>6.914170261447682</v>
       </c>
       <c r="D3">
-        <v>10.4589168366868</v>
+        <v>9.08833529089314</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.88778119270932</v>
+        <v>23.85892970163737</v>
       </c>
       <c r="G3">
-        <v>3.659363388589991</v>
+        <v>2.101858981583367</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.36493578756304</v>
+        <v>8.028646515734502</v>
       </c>
       <c r="K3">
-        <v>10.28343398044409</v>
+        <v>11.1467441732691</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.2055266257816</v>
+        <v>12.59921639632286</v>
       </c>
       <c r="O3">
-        <v>25.04599247561742</v>
+        <v>16.3029621657471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.67736933921746</v>
+        <v>12.04635950753177</v>
       </c>
       <c r="C4">
-        <v>4.029562607868116</v>
+        <v>6.653816879063544</v>
       </c>
       <c r="D4">
-        <v>10.40108082809133</v>
+        <v>8.758694917526485</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.91182969454054</v>
+        <v>23.58167453035523</v>
       </c>
       <c r="G4">
-        <v>3.660564825462544</v>
+        <v>2.10496697276962</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.35595289567657</v>
+        <v>7.861564012228215</v>
       </c>
       <c r="K4">
-        <v>10.17543649536271</v>
+        <v>10.67051308574662</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.24483376828429</v>
+        <v>12.72870525960618</v>
       </c>
       <c r="O4">
-        <v>25.09402202378385</v>
+        <v>16.29046990689108</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.61182511364603</v>
+        <v>11.7963442247437</v>
       </c>
       <c r="C5">
-        <v>3.97135813303171</v>
+        <v>6.544659077273724</v>
       </c>
       <c r="D5">
-        <v>10.37798206355747</v>
+        <v>8.621762338598749</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.92366252279353</v>
+        <v>23.47282994715956</v>
       </c>
       <c r="G5">
-        <v>3.661069725444963</v>
+        <v>2.106257629134223</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.35286503494215</v>
+        <v>7.793730685529615</v>
       </c>
       <c r="K5">
-        <v>10.13154850109054</v>
+        <v>10.47018700543077</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.26129040188989</v>
+        <v>12.78218089042533</v>
       </c>
       <c r="O5">
-        <v>25.11486695088306</v>
+        <v>16.28868809391105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.60093473193928</v>
+        <v>11.75432517045718</v>
       </c>
       <c r="C6">
-        <v>3.961595749928219</v>
+        <v>6.526350068456427</v>
       </c>
       <c r="D6">
-        <v>10.37417558274318</v>
+        <v>8.598872599967523</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.92575005507791</v>
+        <v>23.45500711464963</v>
       </c>
       <c r="G6">
-        <v>3.661154489480253</v>
+        <v>2.106473414259834</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.35238695856799</v>
+        <v>7.782485117795771</v>
       </c>
       <c r="K6">
-        <v>10.12426995028228</v>
+        <v>10.43654555894905</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.2640495460941</v>
+        <v>12.79110391045163</v>
       </c>
       <c r="O6">
-        <v>25.11840501707322</v>
+        <v>16.28858842259042</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.67648590877792</v>
+        <v>12.04302148485655</v>
       </c>
       <c r="C7">
-        <v>4.02878421191021</v>
+        <v>6.652357070566453</v>
       </c>
       <c r="D7">
-        <v>10.400767377043</v>
+        <v>8.75685851163591</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.91198104871093</v>
+        <v>23.58018981961339</v>
       </c>
       <c r="G7">
-        <v>3.660571572688746</v>
+        <v>2.104984280625616</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.35590892954376</v>
+        <v>7.860648035379877</v>
       </c>
       <c r="K7">
-        <v>10.17484403827408</v>
+        <v>10.66783673543417</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.24505393035091</v>
+        <v>12.72942355367211</v>
       </c>
       <c r="O7">
-        <v>25.0942979968087</v>
+        <v>16.29043264382793</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.00818960608062</v>
+        <v>13.24402265066481</v>
       </c>
       <c r="C8">
-        <v>4.310801263874475</v>
+        <v>7.181403143737812</v>
       </c>
       <c r="D8">
-        <v>10.5221731991363</v>
+        <v>9.430771443073677</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.86907423756725</v>
+        <v>24.16884296399509</v>
       </c>
       <c r="G8">
-        <v>3.658133522627886</v>
+        <v>2.098623395778928</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.37647183549302</v>
+        <v>8.20755052083147</v>
       </c>
       <c r="K8">
-        <v>10.39893490986299</v>
+        <v>11.63350451291928</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.16507789472773</v>
+        <v>12.46339229809351</v>
       </c>
       <c r="O8">
-        <v>24.99909703739859</v>
+        <v>16.32795111742665</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.64628544038969</v>
+        <v>15.3403423465532</v>
       </c>
       <c r="C9">
-        <v>4.809634038481338</v>
+        <v>8.119630060475224</v>
       </c>
       <c r="D9">
-        <v>10.77325527133033</v>
+        <v>10.66038114325367</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.84920357238433</v>
+        <v>25.45069049408178</v>
       </c>
       <c r="G9">
-        <v>3.653831737042217</v>
+        <v>2.086867633457231</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.43465059022827</v>
+        <v>8.889335451599763</v>
       </c>
       <c r="K9">
-        <v>10.8380044240158</v>
+        <v>13.32951536248657</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.02198280643023</v>
+        <v>11.96213993039402</v>
       </c>
       <c r="O9">
-        <v>24.8527426574427</v>
+        <v>16.51518107648243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.10233017445237</v>
+        <v>16.72598017978028</v>
       </c>
       <c r="C10">
-        <v>5.141658488313791</v>
+        <v>8.74741606605005</v>
       </c>
       <c r="D10">
-        <v>10.96416751669497</v>
+        <v>11.50255346190907</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.87380825567511</v>
+        <v>26.46703738268221</v>
       </c>
       <c r="G10">
-        <v>3.650960295688212</v>
+        <v>2.078629868775202</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.48807322981178</v>
+        <v>9.386856748465611</v>
       </c>
       <c r="K10">
-        <v>11.15718046164337</v>
+        <v>14.45589826091291</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.92513778969998</v>
+        <v>11.6046253794681</v>
       </c>
       <c r="O10">
-        <v>24.76994217850792</v>
+        <v>16.72910039651329</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.30602499108403</v>
+        <v>17.3235236152584</v>
       </c>
       <c r="C11">
-        <v>5.28501047667866</v>
+        <v>9.01959303499004</v>
       </c>
       <c r="D11">
-        <v>11.05209243960369</v>
+        <v>11.8717067207593</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.89349831362332</v>
+        <v>26.9448652203531</v>
       </c>
       <c r="G11">
-        <v>3.649716121523666</v>
+        <v>2.07495991951635</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.51464239227978</v>
+        <v>9.611726024482454</v>
       </c>
       <c r="K11">
-        <v>11.30100045910224</v>
+        <v>14.94265495557453</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.88286114099818</v>
+        <v>11.44391579460464</v>
       </c>
       <c r="O11">
-        <v>24.73766965083033</v>
+        <v>16.84443038021496</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.38254218857024</v>
+        <v>17.54514418363863</v>
       </c>
       <c r="C12">
-        <v>5.338175660657723</v>
+        <v>9.120734403054923</v>
       </c>
       <c r="D12">
-        <v>11.08551481229582</v>
+        <v>12.00945397615377</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.90217308500073</v>
+        <v>27.12797323675384</v>
       </c>
       <c r="G12">
-        <v>3.649253859754977</v>
+        <v>2.073580547842048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.52502423085542</v>
+        <v>9.696620465828449</v>
       </c>
       <c r="K12">
-        <v>11.35521294736712</v>
+        <v>15.1233228444953</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.86710645249206</v>
+        <v>11.38330080207562</v>
       </c>
       <c r="O12">
-        <v>24.72622642526742</v>
+        <v>16.8908047248496</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.3660914676535</v>
+        <v>17.49762034930076</v>
       </c>
       <c r="C13">
-        <v>5.326775545669305</v>
+        <v>9.099037381616725</v>
       </c>
       <c r="D13">
-        <v>11.07831149660125</v>
+        <v>11.97987893154798</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.90025068587668</v>
+        <v>27.08844227913792</v>
       </c>
       <c r="G13">
-        <v>3.649353021855562</v>
+        <v>2.073877172478285</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.52277414307047</v>
+        <v>9.678349114012951</v>
       </c>
       <c r="K13">
-        <v>11.34354918517062</v>
+        <v>15.08457485328125</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.87048820395545</v>
+        <v>11.3963451289052</v>
       </c>
       <c r="O13">
-        <v>24.72865631027379</v>
+        <v>16.88069532024562</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.31233290302199</v>
+        <v>17.34184944327043</v>
       </c>
       <c r="C14">
-        <v>5.289406904576551</v>
+        <v>9.027952570237773</v>
       </c>
       <c r="D14">
-        <v>11.05483973041859</v>
+        <v>11.8830803732749</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.89418759315906</v>
+        <v>26.95988657008524</v>
       </c>
       <c r="G14">
-        <v>3.649677913252862</v>
+        <v>2.074846234826371</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.51549011749878</v>
+        <v>9.618715772990685</v>
       </c>
       <c r="K14">
-        <v>11.30546582943346</v>
+        <v>14.95759169505871</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.88155989837767</v>
+        <v>11.43892431481517</v>
       </c>
       <c r="O14">
-        <v>24.73671261276928</v>
+        <v>16.84819086765025</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.27932162411685</v>
+        <v>17.24583068507318</v>
       </c>
       <c r="C15">
-        <v>5.266371438141641</v>
+        <v>8.984160371968988</v>
       </c>
       <c r="D15">
-        <v>11.04047832244331</v>
+        <v>11.82352156262729</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.89063235085919</v>
+        <v>26.88142269728188</v>
       </c>
       <c r="G15">
-        <v>3.649878073750783</v>
+        <v>2.075441138473177</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.51107003799781</v>
+        <v>9.582153646749719</v>
       </c>
       <c r="K15">
-        <v>11.28210476158315</v>
+        <v>14.8793356850972</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.88837474666185</v>
+        <v>11.46503577349191</v>
       </c>
       <c r="O15">
-        <v>24.74174866554339</v>
+        <v>16.8286359598625</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.08893585325568</v>
+        <v>16.68627448493699</v>
       </c>
       <c r="C16">
-        <v>5.132134170565143</v>
+        <v>8.729358909615433</v>
       </c>
       <c r="D16">
-        <v>10.95844072248537</v>
+        <v>11.47814417189024</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.87269219163237</v>
+        <v>26.43611641198393</v>
       </c>
       <c r="G16">
-        <v>3.651042850409773</v>
+        <v>2.078871201685476</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.48638204479395</v>
+        <v>9.372127277321649</v>
       </c>
       <c r="K16">
-        <v>11.14774938042509</v>
+        <v>14.42357412587291</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.92793635557342</v>
+        <v>11.61516396698425</v>
       </c>
       <c r="O16">
-        <v>24.77215998132052</v>
+        <v>16.7219354083867</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.97112041654443</v>
+        <v>16.3346478492297</v>
       </c>
       <c r="C17">
-        <v>5.047804306859859</v>
+        <v>8.569612232460038</v>
       </c>
       <c r="D17">
-        <v>10.90836955719051</v>
+        <v>11.262661484235</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.86386082021403</v>
+        <v>26.16685613642166</v>
       </c>
       <c r="G17">
-        <v>3.651773266510614</v>
+        <v>2.080994733214083</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.47181373294579</v>
+        <v>9.242871842491171</v>
       </c>
       <c r="K17">
-        <v>11.06493732373863</v>
+        <v>14.13743226174219</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.95266081177597</v>
+        <v>11.70773200814344</v>
       </c>
       <c r="O17">
-        <v>24.79219934436598</v>
+        <v>16.66117270022768</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.90300619040758</v>
+        <v>16.12931148553951</v>
       </c>
       <c r="C18">
-        <v>4.998577012790501</v>
+        <v>8.476467855457658</v>
       </c>
       <c r="D18">
-        <v>10.87967308560461</v>
+        <v>11.13740918470414</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.85958131943828</v>
+        <v>26.01344589404078</v>
       </c>
       <c r="G18">
-        <v>3.652199226419993</v>
+        <v>2.082223472026445</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.46364814475557</v>
+        <v>9.168392856511923</v>
       </c>
       <c r="K18">
-        <v>11.01717954432035</v>
+        <v>13.97043543768331</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.96704914990252</v>
+        <v>11.76115815075382</v>
       </c>
       <c r="O18">
-        <v>24.80423303633749</v>
+        <v>16.62791311187896</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.87988621644477</v>
+        <v>16.05925564351726</v>
       </c>
       <c r="C19">
-        <v>4.981785788131318</v>
+        <v>8.444714008207566</v>
       </c>
       <c r="D19">
-        <v>10.86997551785119</v>
+        <v>11.09477685983707</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.85826985030867</v>
+        <v>25.96175675284593</v>
       </c>
       <c r="G19">
-        <v>3.652344454166178</v>
+        <v>2.082640785372504</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.4609202783323</v>
+        <v>9.14315408523874</v>
       </c>
       <c r="K19">
-        <v>11.00098946133645</v>
+        <v>13.91347744927912</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.97194959655209</v>
+        <v>11.77927985116909</v>
       </c>
       <c r="O19">
-        <v>24.80839454963209</v>
+        <v>16.6169387228482</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.98369885780358</v>
+        <v>16.37239848981465</v>
       </c>
       <c r="C20">
-        <v>5.056856299417576</v>
+        <v>8.58674818930942</v>
       </c>
       <c r="D20">
-        <v>10.91368924597978</v>
+        <v>11.28573611786808</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.86471815106387</v>
+        <v>26.19536859676127</v>
       </c>
       <c r="G20">
-        <v>3.651694907969612</v>
+        <v>2.080767925512489</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.4733424725862</v>
+        <v>9.256645631722545</v>
       </c>
       <c r="K20">
-        <v>11.07376627756334</v>
+        <v>14.16814234955232</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.95001152589951</v>
+        <v>11.69785923899499</v>
       </c>
       <c r="O20">
-        <v>24.79001357182888</v>
+        <v>16.66746532140801</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.32814044016612</v>
+        <v>17.3877290198046</v>
       </c>
       <c r="C21">
-        <v>5.300413446614882</v>
+        <v>9.048884137349578</v>
       </c>
       <c r="D21">
-        <v>11.06173072940378</v>
+        <v>11.911568122508</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.8959354306033</v>
+        <v>26.99758820362743</v>
       </c>
       <c r="G21">
-        <v>3.64958224412249</v>
+        <v>2.074561323064844</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.51762095376011</v>
+        <v>9.636238895383206</v>
       </c>
       <c r="K21">
-        <v>11.31665898978394</v>
+        <v>14.99498868742307</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.87830097418378</v>
+        <v>11.42641148946297</v>
       </c>
       <c r="O21">
-        <v>24.7343251599264</v>
+        <v>16.85766403865168</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.54962156629734</v>
+        <v>18.02419555579069</v>
       </c>
       <c r="C22">
-        <v>5.453064776797067</v>
+        <v>9.339694165989409</v>
       </c>
       <c r="D22">
-        <v>11.15921243304262</v>
+        <v>12.30866995825564</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.92343819649909</v>
+        <v>27.53448070933028</v>
       </c>
       <c r="G22">
-        <v>3.648253235349651</v>
+        <v>2.070564926921598</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.54842587896479</v>
+        <v>9.882801421637314</v>
       </c>
       <c r="K22">
-        <v>11.47392983325954</v>
+        <v>15.51408661190931</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.83291720710886</v>
+        <v>11.25039882401141</v>
       </c>
       <c r="O22">
-        <v>24.70246330534703</v>
+        <v>16.99776394956222</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.43176900707567</v>
+        <v>17.6869619259679</v>
       </c>
       <c r="C23">
-        <v>5.372192911632123</v>
+        <v>9.185508314815834</v>
       </c>
       <c r="D23">
-        <v>11.10712719464136</v>
+        <v>12.09782784461454</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.90811113882782</v>
+        <v>27.24679725846681</v>
       </c>
       <c r="G23">
-        <v>3.648957832654204</v>
+        <v>2.072692661976133</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.53181579716438</v>
+        <v>9.751359511606259</v>
       </c>
       <c r="K23">
-        <v>11.39014258876482</v>
+        <v>15.23897121159232</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.85700405791359</v>
+        <v>11.34422461285149</v>
       </c>
       <c r="O23">
-        <v>24.71905310660787</v>
+        <v>16.92150939865645</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.97801332397768</v>
+        <v>16.35534133939202</v>
       </c>
       <c r="C24">
-        <v>5.052766212848005</v>
+        <v>8.579005084587461</v>
       </c>
       <c r="D24">
-        <v>10.91128393187895</v>
+        <v>11.27530833544713</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.86432806651152</v>
+        <v>26.18247377574231</v>
       </c>
       <c r="G24">
-        <v>3.651730315067572</v>
+        <v>2.080870440633468</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.47265067509678</v>
+        <v>9.250419022010496</v>
       </c>
       <c r="K24">
-        <v>11.06977516465811</v>
+        <v>14.15426607708892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.95120872618631</v>
+        <v>11.70232206888579</v>
       </c>
       <c r="O24">
-        <v>24.7910001623965</v>
+        <v>16.66461522258829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.47554724073412</v>
+        <v>14.80061129368979</v>
       </c>
       <c r="C25">
-        <v>4.680655104892271</v>
+        <v>7.876576936270594</v>
       </c>
       <c r="D25">
-        <v>10.70409007049546</v>
+        <v>10.33819898635937</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.8476921591525</v>
+        <v>25.09057227472847</v>
       </c>
       <c r="G25">
-        <v>3.654944498217679</v>
+        <v>2.089974861349142</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.4170197160862</v>
+        <v>8.70520980105249</v>
       </c>
       <c r="K25">
-        <v>10.71959875170883</v>
+        <v>12.89180394648188</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.05923223362324</v>
+        <v>12.09572398890997</v>
       </c>
       <c r="O25">
-        <v>24.88800257353786</v>
+        <v>16.45161757866504</v>
       </c>
     </row>
   </sheetData>
